--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Thbs1-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H2">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J2">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.44565234315336</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.44565234315336</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P2">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q2">
-        <v>34.84923620118401</v>
+        <v>1.151451233563889</v>
       </c>
       <c r="R2">
-        <v>34.84923620118401</v>
+        <v>10.363061102075</v>
       </c>
       <c r="S2">
-        <v>0.006070226847656272</v>
+        <v>0.0001374878035816041</v>
       </c>
       <c r="T2">
-        <v>0.006070226847656272</v>
+        <v>0.0001374878035816041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4066267223055</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H3">
-        <v>5.4066267223055</v>
+        <v>45.566939</v>
       </c>
       <c r="I3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J3">
-        <v>0.00624506808085059</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.185654644002951</v>
+        <v>6.93109</v>
       </c>
       <c r="N3">
-        <v>0.185654644002951</v>
+        <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P3">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q3">
-        <v>1.003765359386469</v>
+        <v>105.2761850778367</v>
       </c>
       <c r="R3">
-        <v>1.003765359386469</v>
+        <v>947.4856657005299</v>
       </c>
       <c r="S3">
-        <v>0.0001748412331943183</v>
+        <v>0.01257039033342535</v>
       </c>
       <c r="T3">
-        <v>0.0001748412331943183</v>
+        <v>0.01257039033342535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>93.47101091744349</v>
+        <v>15.18897966666667</v>
       </c>
       <c r="H4">
-        <v>93.47101091744349</v>
+        <v>45.566939</v>
       </c>
       <c r="I4">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642083</v>
       </c>
       <c r="J4">
-        <v>0.1079661786816397</v>
+        <v>0.01327029680642082</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.44565234315336</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N4">
-        <v>6.44565234315336</v>
+        <v>0.930323</v>
       </c>
       <c r="O4">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P4">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q4">
-        <v>602.4816405369329</v>
+        <v>4.710219043477444</v>
       </c>
       <c r="R4">
-        <v>602.4816405369329</v>
+        <v>42.391971391297</v>
       </c>
       <c r="S4">
-        <v>0.1049434830793517</v>
+        <v>0.0005624186694138669</v>
       </c>
       <c r="T4">
-        <v>0.1049434830793517</v>
+        <v>0.0005624186694138666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>93.47101091744349</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H5">
-        <v>93.47101091744349</v>
+        <v>286.50943</v>
       </c>
       <c r="I5">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J5">
-        <v>0.1079661786816397</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.185654644002951</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>0.185654644002951</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P5">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q5">
-        <v>17.35332725647392</v>
+        <v>7.239934124194444</v>
       </c>
       <c r="R5">
-        <v>17.35332725647392</v>
+        <v>65.15940711774999</v>
       </c>
       <c r="S5">
-        <v>0.003022695602287961</v>
+        <v>0.0008644765942280508</v>
       </c>
       <c r="T5">
-        <v>0.003022695602287961</v>
+        <v>0.0008644765942280508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H6">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I6">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J6">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.44565234315336</v>
+        <v>6.93109</v>
       </c>
       <c r="N6">
-        <v>6.44565234315336</v>
+        <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P6">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q6">
-        <v>1268.539292061949</v>
+        <v>661.9408817262334</v>
       </c>
       <c r="R6">
-        <v>1268.539292061949</v>
+        <v>5957.4679355361</v>
       </c>
       <c r="S6">
-        <v>0.2209609766919284</v>
+        <v>0.07903834333280996</v>
       </c>
       <c r="T6">
-        <v>0.2209609766919284</v>
+        <v>0.07903834333280994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,57 +847,57 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>196.805416198006</v>
+        <v>95.50314333333334</v>
       </c>
       <c r="H7">
-        <v>196.805416198006</v>
+        <v>286.50943</v>
       </c>
       <c r="I7">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543099</v>
       </c>
       <c r="J7">
-        <v>0.2273253335145328</v>
+        <v>0.08343911742543098</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.185654644002951</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N7">
-        <v>0.185654644002951</v>
+        <v>0.930323</v>
       </c>
       <c r="O7">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P7">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q7">
-        <v>36.53783948209341</v>
+        <v>29.61625693843223</v>
       </c>
       <c r="R7">
-        <v>36.53783948209341</v>
+        <v>266.54631244589</v>
       </c>
       <c r="S7">
-        <v>0.00636435682260443</v>
+        <v>0.003536297498392978</v>
       </c>
       <c r="T7">
-        <v>0.00636435682260443</v>
+        <v>0.003536297498392977</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H8">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I8">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J8">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.44565234315336</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N8">
-        <v>6.44565234315336</v>
+        <v>0.227425</v>
       </c>
       <c r="O8">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P8">
-        <v>0.9720033103033034</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q8">
-        <v>1083.358995670407</v>
+        <v>30.48187215999444</v>
       </c>
       <c r="R8">
-        <v>1083.358995670407</v>
+        <v>274.33684943995</v>
       </c>
       <c r="S8">
-        <v>0.1887052795993563</v>
+        <v>0.003639655358535293</v>
       </c>
       <c r="T8">
-        <v>0.1887052795993563</v>
+        <v>0.003639655358535292</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.07592746158</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H9">
-        <v>168.07592746158</v>
+        <v>1206.273934</v>
       </c>
       <c r="I9">
-        <v>0.1941405729785764</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J9">
-        <v>0.1941405729785764</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.185654644002951</v>
+        <v>6.93109</v>
       </c>
       <c r="N9">
-        <v>0.185654644002951</v>
+        <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P9">
-        <v>0.02799668969669656</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q9">
-        <v>31.20407647834545</v>
+        <v>2786.931067069353</v>
       </c>
       <c r="R9">
-        <v>31.20407647834545</v>
+        <v>25082.37960362418</v>
       </c>
       <c r="S9">
-        <v>0.005435293379220078</v>
+        <v>0.3327705246871328</v>
       </c>
       <c r="T9">
-        <v>0.005435293379220078</v>
+        <v>0.3327705246871326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>365.972334762252</v>
+        <v>402.0913113333333</v>
       </c>
       <c r="H10">
-        <v>365.972334762252</v>
+        <v>1206.273934</v>
       </c>
       <c r="I10">
-        <v>0.4227260848005264</v>
+        <v>0.3512988470441011</v>
       </c>
       <c r="J10">
-        <v>0.4227260848005264</v>
+        <v>0.351298847044101</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.44565234315336</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N10">
-        <v>6.44565234315336</v>
+        <v>0.930323</v>
       </c>
       <c r="O10">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P10">
-        <v>0.9720033103033034</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q10">
-        <v>2358.930437089615</v>
+        <v>124.6915983445202</v>
       </c>
       <c r="R10">
-        <v>2358.930437089615</v>
+        <v>1122.224385100682</v>
       </c>
       <c r="S10">
-        <v>0.4108911537776666</v>
+        <v>0.01488866699843302</v>
       </c>
       <c r="T10">
-        <v>0.4108911537776666</v>
+        <v>0.01488866699843302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>365.972334762252</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H11">
-        <v>365.972334762252</v>
+        <v>576.636917</v>
       </c>
       <c r="I11">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J11">
-        <v>0.4227260848005264</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.185654644002951</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N11">
-        <v>0.185654644002951</v>
+        <v>0.227425</v>
       </c>
       <c r="O11">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="P11">
-        <v>0.02799668969669656</v>
+        <v>0.01036056733223033</v>
       </c>
       <c r="Q11">
-        <v>67.9444635252147</v>
+        <v>14.57129453874722</v>
       </c>
       <c r="R11">
-        <v>67.9444635252147</v>
+        <v>131.141650848725</v>
       </c>
       <c r="S11">
-        <v>0.01183493102285977</v>
+        <v>0.001739869846916812</v>
       </c>
       <c r="T11">
-        <v>0.01183493102285977</v>
+        <v>0.001739869846916813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.012123771195</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H12">
-        <v>36.012123771195</v>
+        <v>576.636917</v>
       </c>
       <c r="I12">
-        <v>0.04159676194387419</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J12">
-        <v>0.04159676194387419</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.44565234315336</v>
+        <v>6.93109</v>
       </c>
       <c r="N12">
-        <v>6.44565234315336</v>
+        <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="P12">
-        <v>0.9720033103033034</v>
+        <v>0.9472576624920083</v>
       </c>
       <c r="Q12">
-        <v>232.1216299677319</v>
+        <v>1332.240789683177</v>
       </c>
       <c r="R12">
-        <v>232.1216299677319</v>
+        <v>11990.16710714859</v>
       </c>
       <c r="S12">
-        <v>0.04043219030734419</v>
+        <v>0.159074787256458</v>
       </c>
       <c r="T12">
-        <v>0.04043219030734419</v>
+        <v>0.159074787256458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,424 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.012123771195</v>
+        <v>192.2123056666667</v>
       </c>
       <c r="H13">
-        <v>36.012123771195</v>
+        <v>576.636917</v>
       </c>
       <c r="I13">
-        <v>0.04159676194387419</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="J13">
-        <v>0.04159676194387419</v>
+        <v>0.1679319086614409</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.185654644002951</v>
+        <v>0.3101076666666667</v>
       </c>
       <c r="N13">
-        <v>0.185654644002951</v>
+        <v>0.930323</v>
       </c>
       <c r="O13">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="P13">
-        <v>0.02799668969669656</v>
+        <v>0.04238177017576132</v>
       </c>
       <c r="Q13">
-        <v>6.685818018531418</v>
+        <v>59.60650961491012</v>
       </c>
       <c r="R13">
-        <v>6.685818018531418</v>
+        <v>536.458586534191</v>
       </c>
       <c r="S13">
-        <v>0.001164571636530002</v>
+        <v>0.007117251558066131</v>
       </c>
       <c r="T13">
-        <v>0.001164571636530002</v>
+        <v>0.007117251558066131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>402.444082</v>
+      </c>
+      <c r="H14">
+        <v>1207.332246</v>
+      </c>
+      <c r="I14">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J14">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N14">
+        <v>0.227425</v>
+      </c>
+      <c r="O14">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="P14">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="Q14">
+        <v>30.50861511628333</v>
+      </c>
+      <c r="R14">
+        <v>274.57753604655</v>
+      </c>
+      <c r="S14">
+        <v>0.003642848572641337</v>
+      </c>
+      <c r="T14">
+        <v>0.003642848572641337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>402.444082</v>
+      </c>
+      <c r="H15">
+        <v>1207.332246</v>
+      </c>
+      <c r="I15">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J15">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.93109</v>
+      </c>
+      <c r="N15">
+        <v>20.79327</v>
+      </c>
+      <c r="O15">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="P15">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="Q15">
+        <v>2789.37615230938</v>
+      </c>
+      <c r="R15">
+        <v>25104.38537078442</v>
+      </c>
+      <c r="S15">
+        <v>0.333062477476293</v>
+      </c>
+      <c r="T15">
+        <v>0.333062477476293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>402.444082</v>
+      </c>
+      <c r="H16">
+        <v>1207.332246</v>
+      </c>
+      <c r="I16">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="J16">
+        <v>0.3516070554658648</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3101076666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.930323</v>
+      </c>
+      <c r="O16">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="P16">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="Q16">
+        <v>124.8009952328287</v>
+      </c>
+      <c r="R16">
+        <v>1123.208957095458</v>
+      </c>
+      <c r="S16">
+        <v>0.01490172941693045</v>
+      </c>
+      <c r="T16">
+        <v>0.01490172941693045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H17">
+        <v>111.434855</v>
+      </c>
+      <c r="I17">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J17">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N17">
+        <v>0.227425</v>
+      </c>
+      <c r="O17">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="P17">
+        <v>0.01036056733223033</v>
+      </c>
+      <c r="Q17">
+        <v>2.815896877597222</v>
+      </c>
+      <c r="R17">
+        <v>25.343071898375</v>
+      </c>
+      <c r="S17">
+        <v>0.0003362291563272339</v>
+      </c>
+      <c r="T17">
+        <v>0.0003362291563272338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H18">
+        <v>111.434855</v>
+      </c>
+      <c r="I18">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J18">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.93109</v>
+      </c>
+      <c r="N18">
+        <v>20.79327</v>
+      </c>
+      <c r="O18">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="P18">
+        <v>0.9472576624920083</v>
+      </c>
+      <c r="Q18">
+        <v>257.4550030473167</v>
+      </c>
+      <c r="R18">
+        <v>2317.09502742585</v>
+      </c>
+      <c r="S18">
+        <v>0.03074113940588934</v>
+      </c>
+      <c r="T18">
+        <v>0.03074113940588933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>37.14495166666666</v>
+      </c>
+      <c r="H19">
+        <v>111.434855</v>
+      </c>
+      <c r="I19">
+        <v>0.03245277459674146</v>
+      </c>
+      <c r="J19">
+        <v>0.03245277459674145</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3101076666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.930323</v>
+      </c>
+      <c r="O19">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="P19">
+        <v>0.04238177017576132</v>
+      </c>
+      <c r="Q19">
+        <v>11.51893428979611</v>
+      </c>
+      <c r="R19">
+        <v>103.670408608165</v>
+      </c>
+      <c r="S19">
+        <v>0.001375406034524882</v>
+      </c>
+      <c r="T19">
+        <v>0.001375406034524881</v>
       </c>
     </row>
   </sheetData>
